--- a/src/test/resources/data/DataBase.xlsx
+++ b/src/test/resources/data/DataBase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo.Bazan\OneDrive\OneDrive - TSOFT\Documentos\Codigos Java\Git\PruebaStorePage\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo.Bazan\OneDrive\OneDrive - TSOFT\Documentos\Codigos Java\Git\TrabajoPOM_LunaBazan\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{3A16BB79-3435-4245-816D-094F909D4277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1A524415-7000-465A-889B-DE4854293FD4}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{3A16BB79-3435-4245-816D-094F909D4277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D70CC978-0865-45E0-B3F8-F5C5B54E22D5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{25E64B6E-28DC-4278-89A1-B348F12828FD}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>passwordTsoft</t>
   </si>
   <si>
-    <t>userTsoft96</t>
+    <t>userTsoft01</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/data/DataBase.xlsx
+++ b/src/test/resources/data/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo.Bazan\OneDrive\OneDrive - TSOFT\Documentos\Codigos Java\Git\TrabajoPOM_LunaBazan\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{3A16BB79-3435-4245-816D-094F909D4277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D70CC978-0865-45E0-B3F8-F5C5B54E22D5}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{3A16BB79-3435-4245-816D-094F909D4277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{33497C5D-FA69-4EF5-8866-9745ED10F67E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{25E64B6E-28DC-4278-89A1-B348F12828FD}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>passwordTsoft</t>
   </si>
   <si>
-    <t>userTsoft01</t>
+    <t>userTsoft07</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/data/DataBase.xlsx
+++ b/src/test/resources/data/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo.Bazan\OneDrive\OneDrive - TSOFT\Documentos\Codigos Java\Git\TrabajoPOM_LunaBazan\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{3A16BB79-3435-4245-816D-094F909D4277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{33497C5D-FA69-4EF5-8866-9745ED10F67E}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{3A16BB79-3435-4245-816D-094F909D4277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B43DA69C-2DE8-4D8F-A139-143314F88FCC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{25E64B6E-28DC-4278-89A1-B348F12828FD}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>passwordTsoft</t>
   </si>
   <si>
-    <t>userTsoft07</t>
+    <t>userTsoft25</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/data/DataBase.xlsx
+++ b/src/test/resources/data/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo.Bazan\OneDrive\OneDrive - TSOFT\Documentos\Codigos Java\Git\TrabajoPOM_LunaBazan\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{3A16BB79-3435-4245-816D-094F909D4277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B43DA69C-2DE8-4D8F-A139-143314F88FCC}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{3A16BB79-3435-4245-816D-094F909D4277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6FE0FF17-4792-47B1-9973-479D270F946A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{25E64B6E-28DC-4278-89A1-B348F12828FD}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>passwordTsoft</t>
   </si>
   <si>
-    <t>userTsoft25</t>
+    <t>userTsoft26</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/data/DataBase.xlsx
+++ b/src/test/resources/data/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo.Bazan\OneDrive\OneDrive - TSOFT\Documentos\Codigos Java\Git\TrabajoPOM_LunaBazan\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{3A16BB79-3435-4245-816D-094F909D4277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6FE0FF17-4792-47B1-9973-479D270F946A}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{3A16BB79-3435-4245-816D-094F909D4277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A640ACDA-A411-4755-AACA-0CA190EC09AC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{25E64B6E-28DC-4278-89A1-B348F12828FD}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>passwordTsoft</t>
   </si>
   <si>
-    <t>userTsoft26</t>
+    <t>userTsoft29</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/data/DataBase.xlsx
+++ b/src/test/resources/data/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo.Bazan\OneDrive\OneDrive - TSOFT\Documentos\Codigos Java\Git\TrabajoPOM_LunaBazan\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{3A16BB79-3435-4245-816D-094F909D4277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A640ACDA-A411-4755-AACA-0CA190EC09AC}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{3A16BB79-3435-4245-816D-094F909D4277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0E276765-B78A-4363-A993-322C9021E34A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{25E64B6E-28DC-4278-89A1-B348F12828FD}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>passwordTsoft</t>
   </si>
   <si>
-    <t>userTsoft29</t>
+    <t>userTsoft30</t>
   </si>
 </sst>
 </file>
